--- a/src/com/qtpselenium/xls/B suite.xlsx
+++ b/src/com/qtpselenium/xls/B suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Create_Employer" sheetId="3" r:id="rId3"/>
     <sheet name="Create_Guarantors" sheetId="4" r:id="rId4"/>
     <sheet name="Create_CaseManager" sheetId="5" r:id="rId5"/>
+    <sheet name="Create_LabCompany" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="37">
   <si>
     <t>TCID</t>
   </si>
@@ -95,12 +96,6 @@
     <t>prakash</t>
   </si>
   <si>
-    <t>sun</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Create_Guarantors</t>
   </si>
   <si>
@@ -122,16 +117,19 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>Create_CaseManager</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>Create_LabCompany</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>Create_CaseManager</t>
-  </si>
-  <si>
-    <t>Khan</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -495,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,23 +540,23 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -566,8 +564,19 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +589,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -644,10 +653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,35 +705,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -749,10 +736,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -766,19 +753,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -791,14 +778,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -826,25 +875,24 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
